--- a/notebooks/posts/mov-rec.xlsx
+++ b/notebooks/posts/mov-rec.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Timestamp</t>
   </si>
@@ -92,6 +92,96 @@
   </si>
   <si>
     <t>Chirag</t>
+  </si>
+  <si>
+    <t>Aaryan Darad</t>
+  </si>
+  <si>
+    <t>Hetvi Patel</t>
+  </si>
+  <si>
+    <t>Kalash Kankaria</t>
+  </si>
+  <si>
+    <t>Rachit Verma</t>
+  </si>
+  <si>
+    <t>shriraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavini Korthi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hitarth Gandhi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radhika Joglekar </t>
+  </si>
+  <si>
+    <t>Medhansh Singh</t>
+  </si>
+  <si>
+    <t>Arun Mani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satyam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karan Kumar </t>
+  </si>
+  <si>
+    <t>R Yeeshu Dhurandhar</t>
+  </si>
+  <si>
+    <t>Satyam Gupta</t>
+  </si>
+  <si>
+    <t>rushali</t>
+  </si>
+  <si>
+    <t>shridhar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanvi Jain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manish Prabhubhai Salvi </t>
+  </si>
+  <si>
+    <t>Varun Barala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Shah </t>
+  </si>
+  <si>
+    <t>Inderjeet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gangaram Siddam </t>
+  </si>
+  <si>
+    <t>Aditi</t>
+  </si>
+  <si>
+    <t>Madhuri Awachar</t>
+  </si>
+  <si>
+    <t>Anupam</t>
+  </si>
+  <si>
+    <t>Jinay</t>
+  </si>
+  <si>
+    <t>Shrutimoy</t>
+  </si>
+  <si>
+    <t>Aadesh Desai</t>
+  </si>
+  <si>
+    <t>Dhairya</t>
+  </si>
+  <si>
+    <t>Rahul C</t>
   </si>
 </sst>
 </file>
@@ -912,6 +1002,981 @@
         <v>5.0</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>45027.47718011574</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>45027.47949435185</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>45027.47957660879</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>45027.48021274306</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>45027.480975300925</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>45027.481375787036</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>45027.48659759259</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>45027.48923244213</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>45027.489473912035</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>45027.490079247684</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>45027.493958946754</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>45027.49785047454</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>45027.50540692129</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>45027.50858625</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>45027.51332961806</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>45027.521658287034</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>45027.52268491898</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>45027.53606195602</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G34" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>45027.53650777778</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>45027.54202479166</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>45027.54501368056</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G37" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>45027.55444572917</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>45027.570151875</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>45027.595409953705</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>45027.5980566088</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>45027.608234768515</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>45027.609127731484</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>45027.61003283565</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>45027.61208644676</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>45027.61357829861</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
